--- a/POJ_JAVA/videoTutorials/Java零基础入门教程-包含面向对象_任小龙/课时11_Java语言基础-引出跨平台和可移植性/课时11_Java语言基础-引出跨平台和可移植性.xlsx
+++ b/POJ_JAVA/videoTutorials/Java零基础入门教程-包含面向对象_任小龙/课时11_Java语言基础-引出跨平台和可移植性/课时11_Java语言基础-引出跨平台和可移植性.xlsx
@@ -95,6 +95,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665125</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="13009525" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665125</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="7781925"/>
+          <a:ext cx="13009525" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,12 +467,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="1.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
